--- a/general_cities.xlsx
+++ b/general_cities.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cadenlin/PycharmProjects/heatmap/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4C60848-4271-A140-9C47-D67BF82E8559}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15798A3A-F6A6-2345-B79E-98B603CB200B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28880" yWindow="500" windowWidth="18620" windowHeight="13000" activeTab="6" xr2:uid="{AF0BBA4D-6ACA-7845-BC9B-0D28D119FCBA}"/>
+    <workbookView xWindow="47880" yWindow="480" windowWidth="19320" windowHeight="21120" activeTab="7" xr2:uid="{AF0BBA4D-6ACA-7845-BC9B-0D28D119FCBA}"/>
   </bookViews>
   <sheets>
     <sheet name="McCain" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="18">
   <si>
     <t>lat</t>
   </si>
@@ -54,9 +54,6 @@
     <t>name</t>
   </si>
   <si>
-    <t>Charlotte, NC</t>
-  </si>
-  <si>
     <t>Charlotte County, FL</t>
   </si>
   <si>
@@ -66,15 +63,6 @@
     <t>Miami-Dade County, FL</t>
   </si>
   <si>
-    <t>New York City, NY</t>
-  </si>
-  <si>
-    <t>Boston, MA</t>
-  </si>
-  <si>
-    <t>Chicago, IL</t>
-  </si>
-  <si>
     <t>Santa Clarita, CA</t>
   </si>
   <si>
@@ -88,6 +76,27 @@
   </si>
   <si>
     <t>San Diego, CA</t>
+  </si>
+  <si>
+    <t>comments</t>
+  </si>
+  <si>
+    <t>General traffic signal improvements</t>
+  </si>
+  <si>
+    <t>General transit improvements</t>
+  </si>
+  <si>
+    <t>26 battery backup systems installed</t>
+  </si>
+  <si>
+    <t>Installed wrong-way driving tech</t>
+  </si>
+  <si>
+    <t>Installed backup battery systems</t>
+  </si>
+  <si>
+    <t>Installed adaptive traffic control systems</t>
   </si>
 </sst>
 </file>
@@ -446,10 +455,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3D23A40-B76A-E543-9856-9FD5DB349BCC}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -457,7 +466,7 @@
     <col min="3" max="3" width="25.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -466,6 +475,9 @@
       </c>
       <c r="C1" t="s">
         <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -475,15 +487,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B59C4EC-3047-874E-86D1-2D9FE8DDDD32}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -493,38 +505,36 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>35.2271</v>
+        <v>26.894600000000001</v>
       </c>
       <c r="B2">
-        <v>-80.843100000000007</v>
+        <v>-81.909800000000004</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>26.894600000000001</v>
+        <v>39.099699999999999</v>
       </c>
       <c r="B3">
-        <v>-81.909800000000004</v>
+        <v>-94.578599999999994</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>39.099699999999999</v>
-      </c>
-      <c r="B4">
-        <v>-94.578599999999994</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5</v>
+      <c r="D3" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -534,15 +544,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C3A89FE-F879-B147-AE41-32CADB389C7D}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -551,6 +561,9 @@
       </c>
       <c r="C1" t="s">
         <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -560,15 +573,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1536CF1D-C75F-E74F-825F-506A6375BA6E}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -578,8 +591,11 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>25.551600000000001</v>
       </c>
@@ -587,7 +603,10 @@
         <v>-80.6327</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -597,15 +616,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33D1E019-345A-BD44-B7AA-C107CCCA94C4}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -614,6 +633,9 @@
       </c>
       <c r="C1" t="s">
         <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -623,15 +645,15 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4225393-9FA7-E94C-9852-3CF03E35F474}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD4"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -641,38 +663,8 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>40.712800000000001</v>
-      </c>
-      <c r="B2">
-        <v>-74.006</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>42.360100000000003</v>
-      </c>
-      <c r="B3">
-        <v>-71.058899999999994</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>41.878100000000003</v>
-      </c>
-      <c r="B4">
-        <v>-87.529799999999994</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
+      <c r="D1" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -682,15 +674,15 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0D232B2-E1F3-3A42-92D0-0E689F892683}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -700,8 +692,11 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>34.3917</v>
       </c>
@@ -709,10 +704,13 @@
         <v>-118.54259999999999</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>38.729599999999998</v>
       </c>
@@ -720,10 +718,13 @@
         <v>-120.7985</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>36.600200000000001</v>
       </c>
@@ -731,10 +732,13 @@
         <v>-121.8947</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>42.326500000000003</v>
       </c>
@@ -742,10 +746,13 @@
         <v>-122.87560000000001</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>32.715699999999998</v>
       </c>
@@ -753,7 +760,10 @@
         <v>-117.1611</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -763,15 +773,15 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7C8684A-60BB-434A-819C-263F29ABE04E}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -780,6 +790,9 @@
       </c>
       <c r="C1" t="s">
         <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/general_cities.xlsx
+++ b/general_cities.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cadenlin/PycharmProjects/heatmap/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15798A3A-F6A6-2345-B79E-98B603CB200B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{636987B5-13F2-8041-BA7D-DD990C7ABBD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="47880" yWindow="480" windowWidth="19320" windowHeight="21120" activeTab="7" xr2:uid="{AF0BBA4D-6ACA-7845-BC9B-0D28D119FCBA}"/>
+    <workbookView xWindow="36040" yWindow="500" windowWidth="31160" windowHeight="21100" activeTab="6" xr2:uid="{AF0BBA4D-6ACA-7845-BC9B-0D28D119FCBA}"/>
   </bookViews>
   <sheets>
     <sheet name="McCain" sheetId="1" r:id="rId1"/>
@@ -81,12 +81,6 @@
     <t>comments</t>
   </si>
   <si>
-    <t>General traffic signal improvements</t>
-  </si>
-  <si>
-    <t>General transit improvements</t>
-  </si>
-  <si>
     <t>26 battery backup systems installed</t>
   </si>
   <si>
@@ -97,6 +91,12 @@
   </si>
   <si>
     <t>Installed adaptive traffic control systems</t>
+  </si>
+  <si>
+    <t>General traffic signal improvements - 06/28/23</t>
+  </si>
+  <si>
+    <t>General transit improvements - 10/25/18</t>
   </si>
 </sst>
 </file>
@@ -490,10 +490,13 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="24.5" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -520,7 +523,7 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -534,7 +537,7 @@
         <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -606,7 +609,7 @@
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -623,6 +626,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="26.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -676,11 +682,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0D232B2-E1F3-3A42-92D0-0E689F892683}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I42" sqref="I42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="35.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -707,7 +716,7 @@
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.25">
@@ -721,7 +730,7 @@
         <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.25">
@@ -735,7 +744,7 @@
         <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.25">
@@ -749,7 +758,7 @@
         <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.25">
@@ -763,7 +772,7 @@
         <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -775,7 +784,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7C8684A-60BB-434A-819C-263F29ABE04E}">
   <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>

--- a/general_cities.xlsx
+++ b/general_cities.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cadenlin/PycharmProjects/heatmap/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{636987B5-13F2-8041-BA7D-DD990C7ABBD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76EC2C65-E5ED-664D-931C-8DDEA1DFDA3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36040" yWindow="500" windowWidth="31160" windowHeight="21100" activeTab="6" xr2:uid="{AF0BBA4D-6ACA-7845-BC9B-0D28D119FCBA}"/>
+    <workbookView xWindow="36040" yWindow="500" windowWidth="31160" windowHeight="21100" activeTab="7" xr2:uid="{AF0BBA4D-6ACA-7845-BC9B-0D28D119FCBA}"/>
   </bookViews>
   <sheets>
     <sheet name="McCain" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="Temple" sheetId="5" r:id="rId5"/>
     <sheet name="Oriux" sheetId="6" r:id="rId6"/>
     <sheet name="Western Systems" sheetId="7" r:id="rId7"/>
-    <sheet name="Mobotrex" sheetId="8" r:id="rId8"/>
+    <sheet name="MoboTrex" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="181029" iterateDelta="1E-4"/>
   <extLst>
@@ -682,7 +682,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0D232B2-E1F3-3A42-92D0-0E689F892683}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I42" sqref="I42"/>
     </sheetView>
   </sheetViews>
@@ -784,7 +784,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7C8684A-60BB-434A-819C-263F29ABE04E}">
   <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
